--- a/natmiOut/OldD0/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H2">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.0520599792865</v>
+        <v>9.682562333333333</v>
       </c>
       <c r="N2">
-        <v>6.0520599792865</v>
+        <v>29.047687</v>
       </c>
       <c r="O2">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="P2">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="Q2">
-        <v>49.35449535405221</v>
+        <v>453.7104600597272</v>
       </c>
       <c r="R2">
-        <v>49.35449535405221</v>
+        <v>4083.394140537545</v>
       </c>
       <c r="S2">
-        <v>0.01189944241297336</v>
+        <v>0.07604048610817342</v>
       </c>
       <c r="T2">
-        <v>0.01189944241297336</v>
+        <v>0.07604048610817343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H3">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I3">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J3">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.08432164546285</v>
+        <v>4.196433666666667</v>
       </c>
       <c r="N3">
-        <v>4.08432164546285</v>
+        <v>12.589301</v>
       </c>
       <c r="O3">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="P3">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="Q3">
-        <v>33.30760672653084</v>
+        <v>196.6386359278928</v>
       </c>
       <c r="R3">
-        <v>33.30760672653084</v>
+        <v>1769.747723351035</v>
       </c>
       <c r="S3">
-        <v>0.00803051364041101</v>
+        <v>0.03295603425505492</v>
       </c>
       <c r="T3">
-        <v>0.00803051364041101</v>
+        <v>0.03295603425505494</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H4">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I4">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J4">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.12686337212263</v>
+        <v>4.190471333333334</v>
       </c>
       <c r="N4">
-        <v>4.12686337212263</v>
+        <v>12.571414</v>
       </c>
       <c r="O4">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818893</v>
       </c>
       <c r="P4">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818892</v>
       </c>
       <c r="Q4">
-        <v>33.65453412942664</v>
+        <v>196.3592498618322</v>
       </c>
       <c r="R4">
-        <v>33.65453412942664</v>
+        <v>1767.23324875649</v>
       </c>
       <c r="S4">
-        <v>0.008114158354486724</v>
+        <v>0.03290921000446944</v>
       </c>
       <c r="T4">
-        <v>0.008114158354486724</v>
+        <v>0.03290921000446945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H5">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J5">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0520599792865</v>
+        <v>9.682562333333333</v>
       </c>
       <c r="N5">
-        <v>6.0520599792865</v>
+        <v>29.047687</v>
       </c>
       <c r="O5">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="P5">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="Q5">
-        <v>1709.537328167432</v>
+        <v>2741.881042072277</v>
       </c>
       <c r="R5">
-        <v>1709.537328167432</v>
+        <v>24676.92937865049</v>
       </c>
       <c r="S5">
-        <v>0.4121719985874903</v>
+        <v>0.4595308806909907</v>
       </c>
       <c r="T5">
-        <v>0.4121719985874903</v>
+        <v>0.4595308806909908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H6">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I6">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J6">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.08432164546285</v>
+        <v>4.196433666666667</v>
       </c>
       <c r="N6">
-        <v>4.08432164546285</v>
+        <v>12.589301</v>
       </c>
       <c r="O6">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="P6">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="Q6">
-        <v>1153.706397005031</v>
+        <v>1188.334401456527</v>
       </c>
       <c r="R6">
-        <v>1153.706397005031</v>
+        <v>10695.00961310875</v>
       </c>
       <c r="S6">
-        <v>0.2781603323903339</v>
+        <v>0.1991612129328566</v>
       </c>
       <c r="T6">
-        <v>0.2781603323903339</v>
+        <v>0.1991612129328566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H7">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I7">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J7">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.12686337212263</v>
+        <v>4.190471333333334</v>
       </c>
       <c r="N7">
-        <v>4.12686337212263</v>
+        <v>12.571414</v>
       </c>
       <c r="O7">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818893</v>
       </c>
       <c r="P7">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818892</v>
       </c>
       <c r="Q7">
-        <v>1165.723242505323</v>
+        <v>1186.646004504318</v>
       </c>
       <c r="R7">
-        <v>1165.723242505323</v>
+        <v>10679.81404053886</v>
       </c>
       <c r="S7">
-        <v>0.2810576117564897</v>
+        <v>0.1988782427651142</v>
       </c>
       <c r="T7">
-        <v>0.2810576117564897</v>
+        <v>0.1988782427651142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H8">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I8">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J8">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.0520599792865</v>
+        <v>9.682562333333333</v>
       </c>
       <c r="N8">
-        <v>6.0520599792865</v>
+        <v>29.047687</v>
       </c>
       <c r="O8">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="P8">
-        <v>0.4243115771070156</v>
+        <v>0.5358521175370563</v>
       </c>
       <c r="Q8">
-        <v>0.9959959419810203</v>
+        <v>1.675154289123778</v>
       </c>
       <c r="R8">
-        <v>0.9959959419810203</v>
+        <v>15.076388602114</v>
       </c>
       <c r="S8">
-        <v>0.0002401361065519481</v>
+        <v>0.0002807507378921687</v>
       </c>
       <c r="T8">
-        <v>0.0002401361065519481</v>
+        <v>0.0002807507378921687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H9">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I9">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J9">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.08432164546285</v>
+        <v>4.196433666666667</v>
       </c>
       <c r="N9">
-        <v>4.08432164546285</v>
+        <v>12.589301</v>
       </c>
       <c r="O9">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="P9">
-        <v>0.2863529054123776</v>
+        <v>0.2322389248810544</v>
       </c>
       <c r="Q9">
-        <v>0.6721625031062284</v>
+        <v>0.7260137981802222</v>
       </c>
       <c r="R9">
-        <v>0.6721625031062284</v>
+        <v>6.534124183622001</v>
       </c>
       <c r="S9">
-        <v>0.0001620593816327188</v>
+        <v>0.0001216776931428866</v>
       </c>
       <c r="T9">
-        <v>0.0001620593816327188</v>
+        <v>0.0001216776931428866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H10">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I10">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J10">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.12686337212263</v>
+        <v>4.190471333333334</v>
       </c>
       <c r="N10">
-        <v>4.12686337212263</v>
+        <v>12.571414</v>
       </c>
       <c r="O10">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818893</v>
       </c>
       <c r="P10">
-        <v>0.2893355174806068</v>
+        <v>0.2319089575818892</v>
       </c>
       <c r="Q10">
-        <v>0.6791636543279652</v>
+        <v>0.7249822707897778</v>
       </c>
       <c r="R10">
-        <v>0.6791636543279652</v>
+        <v>6.524840437108</v>
       </c>
       <c r="S10">
-        <v>0.000163747369630366</v>
+        <v>0.0001215048123056387</v>
       </c>
       <c r="T10">
-        <v>0.000163747369630366</v>
+        <v>0.0001215048123056387</v>
       </c>
     </row>
   </sheetData>
